--- a/材料-清单/零件购买表.xlsx
+++ b/材料-清单/零件购买表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\循迹小车\材料-清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F8FF37-91D0-41BC-88E5-03BB4B19E943}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E7AF44-E7B4-4E06-B47D-0B7F27EA4D11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>循迹小车零件购买记录</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>商品</t>
-  </si>
-  <si>
-    <t>规格</t>
   </si>
   <si>
     <t>总价</t>
@@ -112,6 +109,18 @@
   </si>
   <si>
     <t>skd转我100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gwx转我1640</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -151,6 +160,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -379,13 +396,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,6 +452,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -437,18 +479,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -721,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV27"/>
+  <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,154 +784,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" s="5">
         <v>2960</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9">
-        <v>220.87</v>
+        <v>227.5</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9">
         <v>51.25</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="5">
         <v>820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9">
         <v>77</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>27</v>
+      <c r="I5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9">
         <v>179</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>14</v>
+      <c r="M5" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
         <v>170</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -897,14 +947,16 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
         <v>150</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
@@ -915,15 +967,16 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
         <v>9</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="7"/>
@@ -934,17 +987,18 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="5">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="7"/>
@@ -955,18 +1009,18 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5">
         <v>19.399999999999999</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="E10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
@@ -977,18 +1031,18 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5">
         <v>16</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="E11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="7"/>
@@ -999,18 +1053,18 @@
     </row>
     <row r="12" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="5">
         <v>250</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="E12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="7"/>
@@ -1021,16 +1075,16 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5">
         <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
@@ -1043,12 +1097,14 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>15</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -1061,14 +1117,14 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
-        <v>79.8</v>
+        <v>89.32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -1081,12 +1137,14 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>79.8</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -1099,12 +1157,14 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
+      <c r="D17" s="5">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
@@ -1118,151 +1178,25 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <f>SUM(D4:D17)</f>
+        <v>4630.41</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <f>SUM(H4:H17)</f>
+        <v>304.5</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <f>SUM(L4:L17)</f>
+        <v>230.25</v>
+      </c>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
-        <f>SUM(D4:D26)</f>
-        <v>4521.2</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5">
-        <f>SUM(H4:H26)</f>
-        <v>297.87</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
-        <f>SUM(L4:L26)</f>
-        <v>230.25</v>
-      </c>
-      <c r="M27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1272,7 +1206,11 @@
     <mergeCell ref="J2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{BC09BEE8-C760-447A-ACFE-8B1B0EF9FDE1}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{4DF66A1B-303A-4D0A-A698-5B659D1B6A65}"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>